--- a/scimagojr/scimagojr_2017.xlsx
+++ b/scimagojr/scimagojr_2017.xlsx
@@ -161,6 +161,9 @@
     <t>Singapore</t>
   </si>
   <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
     <t>Israel</t>
   </si>
   <si>
@@ -173,9 +176,6 @@
     <t>Finland</t>
   </si>
   <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
     <t>Greece</t>
   </si>
   <si>
@@ -221,12 +221,12 @@
     <t>Tunisia</t>
   </si>
   <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
     <t>Serbia</t>
   </si>
   <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
     <t>Croatia</t>
   </si>
   <si>
@@ -236,12 +236,12 @@
     <t>Morocco</t>
   </si>
   <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
     <t>Viet Nam</t>
   </si>
   <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
     <t>United Arab Emirates</t>
   </si>
   <si>
@@ -260,15 +260,15 @@
     <t>Qatar</t>
   </si>
   <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
     <t>Kazakhstan</t>
   </si>
   <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
     <t>Jordan</t>
   </si>
   <si>
@@ -290,13 +290,16 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Macao</t>
+  </si>
+  <si>
     <t>Latvia</t>
   </si>
   <si>
     <t>Ghana</t>
   </si>
   <si>
-    <t>Macao</t>
+    <t>Sri Lanka</t>
   </si>
   <si>
     <t>Luxembourg</t>
@@ -305,24 +308,21 @@
     <t>Belarus</t>
   </si>
   <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
     <t>Cuba</t>
   </si>
   <si>
     <t>Uganda</t>
   </si>
   <si>
+    <t>Oman</t>
+  </si>
+  <si>
     <t>Venezuela</t>
   </si>
   <si>
     <t>Iceland</t>
   </si>
   <si>
-    <t>Oman</t>
-  </si>
-  <si>
     <t>Kuwait</t>
   </si>
   <si>
@@ -353,12 +353,12 @@
     <t>Costa Rica</t>
   </si>
   <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
     <t>Macedonia</t>
   </si>
   <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
     <t>Malta</t>
   </si>
   <si>
@@ -395,15 +395,15 @@
     <t>Burkina Faso</t>
   </si>
   <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
     <t>Montenegro</t>
   </si>
   <si>
-    <t>Brunei Darussalam</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
     <t>Benin</t>
   </si>
   <si>
@@ -416,27 +416,27 @@
     <t>Côte d’Ivoire</t>
   </si>
   <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
     <t>Mozambique</t>
   </si>
   <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
+    <t>Jamaica</t>
   </si>
   <si>
     <t>Cambodia</t>
   </si>
   <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
     <t>Congo</t>
   </si>
   <si>
@@ -452,12 +452,12 @@
     <t>Fiji</t>
   </si>
   <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
     <t>Guatemala</t>
   </si>
   <si>
@@ -482,16 +482,19 @@
     <t>Gambia</t>
   </si>
   <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Monaco</t>
+    <t>Dominican Republic</t>
   </si>
   <si>
     <t>Democratic Republic Congo</t>
@@ -500,7 +503,7 @@
     <t>New Caledonia</t>
   </si>
   <si>
-    <t>Dominican Republic</t>
+    <t>Nicaragua</t>
   </si>
   <si>
     <t>Niger</t>
@@ -515,10 +518,7 @@
     <t>Angola</t>
   </si>
   <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
+    <t>Eswatini</t>
   </si>
   <si>
     <t>Honduras</t>
@@ -533,12 +533,15 @@
     <t>Barbados</t>
   </si>
   <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
     <t>Haïti</t>
   </si>
   <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
     <t>French Polynesia</t>
   </si>
   <si>
@@ -548,9 +551,6 @@
     <t>Bhutan</t>
   </si>
   <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
     <t>Greenland</t>
   </si>
   <si>
@@ -560,12 +560,12 @@
     <t>Faroe Islands</t>
   </si>
   <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
     <t>Saint Kitts and Nevis</t>
   </si>
   <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
     <t>French Guiana</t>
   </si>
   <si>
@@ -575,171 +575,171 @@
     <t>Guadeloupe</t>
   </si>
   <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
     <t>Reunion</t>
   </si>
   <si>
     <t>Burundi</t>
   </si>
   <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
     <t>Central African Republic</t>
   </si>
   <si>
     <t>Guam</t>
   </si>
   <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
     <t>Mauritania</t>
   </si>
   <si>
-    <t>Solomon Islands</t>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
   </si>
   <si>
     <t>Cape Verde</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Belize</t>
   </si>
   <si>
     <t>Suriname</t>
   </si>
   <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
     <t>Dominica</t>
   </si>
   <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>San Marino</t>
   </si>
   <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Maldives</t>
   </si>
   <si>
     <t>Federated States of Micronesia</t>
   </si>
   <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+  </si>
+  <si>
     <t>Falkland Islands (Malvinas)</t>
   </si>
   <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
     <t>Tonga</t>
   </si>
   <si>
     <t>Palau</t>
   </si>
   <si>
-    <t>Republic of South Sudan</t>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
   </si>
   <si>
     <t>Turkmenistan</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Aruba</t>
   </si>
   <si>
     <t>Equatorial Guinea</t>
   </si>
   <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Andorra</t>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Virgin Islands (British)</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
   </si>
   <si>
     <t>Anguilla</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Virgin Islands (British)</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Virgin Islands (U.S.)</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
-    <t>Saint Lucia</t>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
   </si>
   <si>
     <t>Kiribati</t>
   </si>
   <si>
-    <t>Netherlands Antilles</t>
+    <t>Marshall Islands</t>
   </si>
   <si>
     <t>Montserrat</t>
   </si>
   <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Mayotte</t>
   </si>
   <si>
     <t>Northern Mariana Islands</t>
   </si>
   <si>
-    <t>Mayotte</t>
+    <t>Vatican City State</t>
   </si>
   <si>
     <t>Tuvalu</t>
   </si>
   <si>
-    <t>Vatican City State</t>
-  </si>
-  <si>
     <t>Svalbard and Jan Mayen</t>
   </si>
   <si>
@@ -752,16 +752,16 @@
     <t>South Georgia and the South Sandwich Islands</t>
   </si>
   <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
     <t>United States Minor Outlying Islands</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Wallis and Futuna</t>
-  </si>
-  <si>
-    <t>British Indian Ocean Territory</t>
   </si>
   <si>
     <t>Tokelau</t>
@@ -908,22 +908,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>709480</v>
+        <v>725464</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>591039</v>
+        <v>597220</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>11136949</v>
+        <v>17196287</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>4570930</v>
+        <v>6475696</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>15.7</v>
+        <v>23.7</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -937,22 +937,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>542098</v>
+        <v>547249</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>527256</v>
+        <v>535058</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>7514833</v>
+        <v>11242655</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>4730540</v>
+        <v>6940660</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>13.86</v>
+        <v>20.54</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -966,22 +966,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>223340</v>
+        <v>229321</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>176798</v>
+        <v>178630</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>3702404</v>
+        <v>5620889</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>826065</v>
+        <v>1129940</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>16.58</v>
+        <v>24.51</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>188714</v>
+        <v>190679</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>167151</v>
+        <v>168890</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>2923812</v>
+        <v>4343016</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>721559</v>
+        <v>962197</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>15.49</v>
+        <v>22.78</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -1024,22 +1024,22 @@
         <v>12</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>158494</v>
+        <v>164420</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>143559</v>
+        <v>149337</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1476141</v>
+        <v>2298748</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>512517</v>
+        <v>807024</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>9.31</v>
+        <v>13.98</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1053,22 +1053,22 @@
         <v>12</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>134865</v>
+        <v>136483</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>123503</v>
+        <v>125641</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1525517</v>
+        <v>2246278</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>370710</v>
+        <v>494522</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>11.31</v>
+        <v>16.46</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1082,22 +1082,22 @@
         <v>14</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>127254</v>
+        <v>128184</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>113384</v>
+        <v>114553</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1916841</v>
+        <v>2815440</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>370532</v>
+        <v>489774</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>15.06</v>
+        <v>21.96</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1352</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1111,22 +1111,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>122173</v>
+        <v>122830</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>105812</v>
+        <v>106616</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1918746</v>
+        <v>2811739</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>500119</v>
+        <v>658822</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>15.71</v>
+        <v>22.89</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1140,22 +1140,22 @@
         <v>10</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>112788</v>
+        <v>114689</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>96348</v>
+        <v>97499</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1940740</v>
+        <v>2981130</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>328950</v>
+        <v>451415</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>17.21</v>
+        <v>25.99</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1169,22 +1169,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>106028</v>
+        <v>107792</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>89474</v>
+        <v>90412</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1920080</v>
+        <v>2927108</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>370751</v>
+        <v>502854</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>18.11</v>
+        <v>27.16</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1198,22 +1198,22 @@
         <v>14</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>96906</v>
+        <v>97092</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>86612</v>
+        <v>87146</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1490601</v>
+        <v>2192611</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>303751</v>
+        <v>406455</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>15.38</v>
+        <v>22.58</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1227,22 +1227,22 @@
         <v>25</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>92184</v>
+        <v>92509</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>89266</v>
+        <v>89735</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>609388</v>
+        <v>824998</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>258200</v>
+        <v>328482</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>6.61</v>
+        <v>8.92</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1256,22 +1256,22 @@
         <v>12</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>84839</v>
+        <v>84957</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>80779</v>
+        <v>81516</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1181591</v>
+        <v>1751410</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>223399</v>
+        <v>292723</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>13.93</v>
+        <v>20.62</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>810</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1285,22 +1285,22 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>80642</v>
+        <v>80820</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>74874</v>
+        <v>75338</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>863011</v>
+        <v>1281395</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>243773</v>
+        <v>345306</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>10.7</v>
+        <v>15.85</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>690</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1314,22 +1314,22 @@
         <v>14</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>64047</v>
+        <v>64487</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>55055</v>
+        <v>55455</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1345474</v>
+        <v>2028839</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>199867</v>
+        <v>265624</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>21.01</v>
+        <v>31.46</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1343,22 +1343,22 @@
         <v>31</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>56600</v>
+        <v>57091</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>54176</v>
+        <v>55025</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>701903</v>
+        <v>1035283</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>231806</v>
+        <v>304445</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>12.4</v>
+        <v>18.13</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1372,22 +1372,22 @@
         <v>14</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>50413</v>
+        <v>50647</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>43900</v>
+        <v>44245</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1086977</v>
+        <v>1601317</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>146530</v>
+        <v>190039</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>21.56</v>
+        <v>31.62</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1401,22 +1401,22 @@
         <v>25</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>50034</v>
+        <v>50130</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>46117</v>
+        <v>46312</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>547180</v>
+        <v>775858</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>126393</v>
+        <v>162331</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>10.94</v>
+        <v>15.48</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>660</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1430,22 +1430,22 @@
         <v>31</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>45462</v>
+        <v>45822</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>41588</v>
+        <v>42060</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>427867</v>
+        <v>640186</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>83701</v>
+        <v>119165</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>9.41</v>
+        <v>13.97</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1459,22 +1459,22 @@
         <v>14</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>44198</v>
+        <v>44479</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>38784</v>
+        <v>39144</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>856267</v>
+        <v>1270562</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>121482</v>
+        <v>159978</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>19.37</v>
+        <v>28.57</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1488,22 +1488,22 @@
         <v>12</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>37562</v>
+        <v>37898</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>35213</v>
+        <v>35799</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>466392</v>
+        <v>677568</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>71227</v>
+        <v>92360</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>12.42</v>
+        <v>17.88</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1517,22 +1517,22 @@
         <v>14</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>35585</v>
+        <v>35746</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>31253</v>
+        <v>31471</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>711074</v>
+        <v>1042644</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>86074</v>
+        <v>110035</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>19.98</v>
+        <v>29.17</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1546,22 +1546,22 @@
         <v>12</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>33612</v>
+        <v>34088</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>31836</v>
+        <v>32366</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>355346</v>
+        <v>542701</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>76474</v>
+        <v>105404</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>10.57</v>
+        <v>15.92</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1575,22 +1575,22 @@
         <v>14</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>29763</v>
+        <v>30053</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>25820</v>
+        <v>26081</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>629441</v>
+        <v>935422</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>83766</v>
+        <v>110200</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>21.15</v>
+        <v>31.13</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>900</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1604,22 +1604,22 @@
         <v>14</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>27545</v>
+        <v>27849</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>24080</v>
+        <v>24259</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>482479</v>
+        <v>717144</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>63031</v>
+        <v>81423</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>17.52</v>
+        <v>25.75</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>783</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1633,22 +1633,22 @@
         <v>14</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>26415</v>
+        <v>26640</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>23280</v>
+        <v>23525</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>415875</v>
+        <v>601955</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>61700</v>
+        <v>82787</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>15.74</v>
+        <v>22.6</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>599</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1662,22 +1662,22 @@
         <v>25</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>26246</v>
+        <v>26297</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>24739</v>
+        <v>24877</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>295245</v>
+        <v>428233</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>55596</v>
+        <v>70014</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>11.25</v>
+        <v>16.28</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1691,22 +1691,22 @@
         <v>44</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>25245</v>
+        <v>25688</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>22152</v>
+        <v>22457</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>345913</v>
+        <v>518169</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>66039</v>
+        <v>92033</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>13.7</v>
+        <v>20.17</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>567</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1720,22 +1720,22 @@
         <v>28</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>25066</v>
+        <v>25214</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>22875</v>
+        <v>23022</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>277929</v>
+        <v>403759</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>50487</v>
+        <v>69881</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>11.09</v>
+        <v>16.01</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>536</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1749,22 +1749,22 @@
         <v>14</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>24637</v>
+        <v>24890</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>21036</v>
+        <v>21239</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>431843</v>
+        <v>640295</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>59503</v>
+        <v>79227</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>17.53</v>
+        <v>25.72</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1778,22 +1778,22 @@
         <v>12</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>23096</v>
+        <v>23578</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>20570</v>
+        <v>20989</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>513620</v>
+        <v>762866</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>53722</v>
+        <v>67340</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>22.24</v>
+        <v>32.35</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1804,25 +1804,25 @@
         <v>48</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>22517</v>
+        <v>22638</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>19608</v>
+        <v>22037</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>389914</v>
+        <v>204145</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>48454</v>
+        <v>69719</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>17.32</v>
+        <v>9.02</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>821</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1833,25 +1833,25 @@
         <v>49</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>22287</v>
+        <v>22632</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>19861</v>
+        <v>19733</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>503726</v>
+        <v>564818</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>54980</v>
+        <v>64377</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>22.6</v>
+        <v>24.96</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>687</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1862,25 +1862,25 @@
         <v>50</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>22030</v>
+        <v>22567</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>20812</v>
+        <v>20144</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>435558</v>
+        <v>752284</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>68456</v>
+        <v>71598</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>19.77</v>
+        <v>33.34</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>478</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1891,25 +1891,25 @@
         <v>51</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>21805</v>
+        <v>22145</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>19300</v>
+        <v>21090</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>400570</v>
+        <v>629728</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>53557</v>
+        <v>90962</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>18.37</v>
+        <v>28.44</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>756</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1920,25 +1920,25 @@
         <v>52</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>21589</v>
+        <v>22094</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>21016</v>
+        <v>19500</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>140064</v>
+        <v>586890</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>50061</v>
+        <v>70569</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>6.49</v>
+        <v>26.56</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>284</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1952,22 +1952,22 @@
         <v>14</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>20415</v>
+        <v>20587</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>17506</v>
+        <v>17705</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>314281</v>
+        <v>451823</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>44618</v>
+        <v>58829</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>15.39</v>
+        <v>21.95</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1981,22 +1981,22 @@
         <v>55</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>19142</v>
+        <v>19746</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>18019</v>
+        <v>18743</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>267388</v>
+        <v>387712</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>57789</v>
+        <v>81746</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>13.97</v>
+        <v>19.63</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -2010,22 +2010,22 @@
         <v>12</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>17992</v>
+        <v>18238</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>17010</v>
+        <v>17357</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>258243</v>
+        <v>380108</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>60352</v>
+        <v>83718</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>14.35</v>
+        <v>20.84</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -2039,22 +2039,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>17106</v>
+        <v>17498</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>14322</v>
+        <v>14544</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>284548</v>
+        <v>422489</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>36742</v>
+        <v>48625</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>16.63</v>
+        <v>24.14</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>633</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2068,22 +2068,22 @@
         <v>12</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>16940</v>
+        <v>17216</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>15768</v>
+        <v>16068</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>167704</v>
+        <v>256955</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>29236</v>
+        <v>41228</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>9.9</v>
+        <v>14.93</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>396</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2097,22 +2097,22 @@
         <v>25</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>16794</v>
+        <v>16957</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>15612</v>
+        <v>15719</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>161088</v>
+        <v>216902</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>29945</v>
+        <v>37697</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>9.59</v>
+        <v>12.79</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2126,22 +2126,22 @@
         <v>14</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>15648</v>
+        <v>15901</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>13023</v>
+        <v>13115</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>290225</v>
+        <v>421951</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>30743</v>
+        <v>39840</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>18.55</v>
+        <v>26.54</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>628</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2155,22 +2155,22 @@
         <v>28</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>14622</v>
+        <v>14657</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>13288</v>
+        <v>13375</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>182396</v>
+        <v>268829</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>29735</v>
+        <v>41309</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>12.47</v>
+        <v>18.34</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2184,22 +2184,22 @@
         <v>28</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>13831</v>
+        <v>13986</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>12763</v>
+        <v>12984</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>199594</v>
+        <v>281522</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>36921</v>
+        <v>49949</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>14.43</v>
+        <v>20.13</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2213,22 +2213,22 @@
         <v>25</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>12821</v>
+        <v>12995</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>12296</v>
+        <v>12506</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>99047</v>
+        <v>121252</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>34806</v>
+        <v>45785</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>7.73</v>
+        <v>9.33</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2242,22 +2242,22 @@
         <v>28</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>12002</v>
+        <v>12192</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>11156</v>
+        <v>11393</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>134665</v>
+        <v>183096</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>20663</v>
+        <v>27494</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>11.22</v>
+        <v>15.02</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2271,22 +2271,22 @@
         <v>25</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>11944</v>
+        <v>12006</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>10787</v>
+        <v>10878</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>191574</v>
+        <v>269028</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>25097</v>
+        <v>32222</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>16.04</v>
+        <v>22.41</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2300,22 +2300,22 @@
         <v>25</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>9198</v>
+        <v>9238</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>8745</v>
+        <v>8815</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>92241</v>
+        <v>116339</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>17623</v>
+        <v>22332</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>10.03</v>
+        <v>12.59</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2329,22 +2329,22 @@
         <v>44</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>8737</v>
+        <v>9091</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>8168</v>
+        <v>8553</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>85569</v>
+        <v>125219</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>13678</v>
+        <v>18745</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>9.79</v>
+        <v>13.77</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2355,25 +2355,25 @@
         <v>68</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>8249</v>
+        <v>8344</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>7595</v>
+        <v>7540</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>107388</v>
+        <v>138587</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>14802</v>
+        <v>24003</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>13.02</v>
+        <v>16.61</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2384,25 +2384,25 @@
         <v>69</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>8099</v>
+        <v>8234</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>7289</v>
+        <v>7624</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>96930</v>
+        <v>138535</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>16486</v>
+        <v>19451</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>11.97</v>
+        <v>16.82</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2416,22 +2416,22 @@
         <v>25</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>7517</v>
+        <v>7552</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>6928</v>
+        <v>6975</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>89748</v>
+        <v>117235</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>12463</v>
+        <v>16361</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>11.94</v>
+        <v>15.52</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2445,22 +2445,22 @@
         <v>44</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>7438</v>
+        <v>7518</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>7204</v>
+        <v>7317</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>82315</v>
+        <v>107061</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>14105</v>
+        <v>19634</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>11.07</v>
+        <v>14.24</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2474,22 +2474,22 @@
         <v>44</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>6774</v>
+        <v>6844</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>6379</v>
+        <v>6475</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>63778</v>
+        <v>89676</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>14291</v>
+        <v>20372</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>9.42</v>
+        <v>13.1</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2500,25 +2500,25 @@
         <v>73</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>6731</v>
+        <v>6748</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>6328</v>
+        <v>6139</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>103032</v>
+        <v>135746</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>17249</v>
+        <v>15271</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>15.31</v>
+        <v>20.12</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>269</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2529,25 +2529,25 @@
         <v>74</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>6721</v>
+        <v>6739</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>6106</v>
+        <v>6372</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>94713</v>
+        <v>136585</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>11667</v>
+        <v>22182</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>14.09</v>
+        <v>20.27</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>361</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2561,22 +2561,22 @@
         <v>31</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>6567</v>
+        <v>6708</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>5968</v>
+        <v>6107</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>90453</v>
+        <v>124590</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>9281</v>
+        <v>12698</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>13.77</v>
+        <v>18.57</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2590,22 +2590,22 @@
         <v>12</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>5450</v>
+        <v>5852</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>5074</v>
+        <v>5497</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>80971</v>
+        <v>112294</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>13235</v>
+        <v>19442</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>14.86</v>
+        <v>19.19</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2619,22 +2619,22 @@
         <v>25</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>5194</v>
+        <v>5252</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>4822</v>
+        <v>4883</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>55145</v>
+        <v>76534</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>8503</v>
+        <v>10893</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>10.62</v>
+        <v>14.57</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2648,22 +2648,22 @@
         <v>31</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>4451</v>
+        <v>4507</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>4275</v>
+        <v>4350</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>59512</v>
+        <v>77622</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>11795</v>
+        <v>16426</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>13.37</v>
+        <v>17.22</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2677,22 +2677,22 @@
         <v>25</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>3994</v>
+        <v>4007</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>3696</v>
+        <v>3708</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>53970</v>
+        <v>72902</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>7435</v>
+        <v>9331</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>13.51</v>
+        <v>18.19</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2706,22 +2706,22 @@
         <v>31</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>3939</v>
+        <v>4005</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>3487</v>
+        <v>3569</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>84877</v>
+        <v>119441</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>7837</v>
+        <v>9751</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>21.55</v>
+        <v>29.82</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2732,25 +2732,25 @@
         <v>81</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>3671</v>
+        <v>3730</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>3554</v>
+        <v>3537</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>34580</v>
+        <v>57951</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>5505</v>
+        <v>8859</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>9.42</v>
+        <v>15.54</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>138</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2761,25 +2761,25 @@
         <v>82</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>3659</v>
+        <v>3727</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>3443</v>
+        <v>3424</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>45809</v>
+        <v>66947</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>6766</v>
+        <v>7012</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>12.52</v>
+        <v>17.96</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>197</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2793,22 +2793,22 @@
         <v>12</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>3654</v>
+        <v>3696</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>3341</v>
+        <v>3580</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>53039</v>
+        <v>37811</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>5226</v>
+        <v>7481</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>14.52</v>
+        <v>10.23</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>296</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2822,22 +2822,22 @@
         <v>31</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>3531</v>
+        <v>3606</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>3362</v>
+        <v>3456</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>62968</v>
+        <v>81977</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>6260</v>
+        <v>9224</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>17.83</v>
+        <v>22.73</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2851,22 +2851,22 @@
         <v>25</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>3473</v>
+        <v>3458</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>3116</v>
+        <v>3128</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>75191</v>
+        <v>89571</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>7896</v>
+        <v>9651</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>21.65</v>
+        <v>25.9</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2880,22 +2880,22 @@
         <v>31</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>3249</v>
+        <v>3269</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>2848</v>
+        <v>2890</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>60548</v>
+        <v>78462</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>4511</v>
+        <v>5807</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>18.64</v>
+        <v>24</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2909,22 +2909,22 @@
         <v>44</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>3231</v>
+        <v>3242</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>2841</v>
+        <v>2857</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>66091</v>
+        <v>89944</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>7458</v>
+        <v>10446</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>20.46</v>
+        <v>27.74</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2938,22 +2938,22 @@
         <v>44</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>3080</v>
+        <v>3066</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>2832</v>
+        <v>2851</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>65495</v>
+        <v>88296</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>11083</v>
+        <v>18015</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>21.26</v>
+        <v>28.8</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2967,22 +2967,22 @@
         <v>28</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>3013</v>
+        <v>3045</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>2656</v>
+        <v>2708</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>51989</v>
+        <v>61635</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>5277</v>
+        <v>7366</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>17.25</v>
+        <v>20.24</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2996,22 +2996,22 @@
         <v>14</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>2910</v>
+        <v>3001</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>2523</v>
+        <v>2572</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>50630</v>
+        <v>69351</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>5575</v>
+        <v>7152</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>17.4</v>
+        <v>23.11</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>254</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -3022,25 +3022,25 @@
         <v>91</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>2520</v>
+        <v>2568</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>2400</v>
+        <v>2434</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>34667</v>
+        <v>75015</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>4012</v>
+        <v>5554</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>13.76</v>
+        <v>29.21</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3051,25 +3051,25 @@
         <v>92</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>2512</v>
+        <v>2531</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>2294</v>
+        <v>2412</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>49442</v>
+        <v>44373</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>5410</v>
+        <v>5116</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>19.68</v>
+        <v>17.53</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>191</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3080,25 +3080,25 @@
         <v>93</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>2509</v>
+        <v>2529</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>2366</v>
+        <v>2325</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>49377</v>
+        <v>62207</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>4409</v>
+        <v>8311</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>19.68</v>
+        <v>24.6</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>178</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3109,25 +3109,25 @@
         <v>94</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>2179</v>
+        <v>2229</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>1912</v>
+        <v>2056</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>57029</v>
+        <v>49603</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>3424</v>
+        <v>4390</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>26.17</v>
+        <v>22.25</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3138,25 +3138,25 @@
         <v>95</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>2166</v>
+        <v>2215</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>2074</v>
+        <v>1948</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>27265</v>
+        <v>65570</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>5966</v>
+        <v>4145</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>12.59</v>
+        <v>29.6</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>213</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3167,25 +3167,25 @@
         <v>96</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>2113</v>
+        <v>2168</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>1930</v>
+        <v>2085</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>40782</v>
+        <v>32293</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>3263</v>
+        <v>6742</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>19.3</v>
+        <v>14.9</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3199,22 +3199,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>2037</v>
+        <v>2047</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>1857</v>
+        <v>1870</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>15940</v>
+        <v>23474</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>2057</v>
+        <v>2826</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>7.83</v>
+        <v>11.47</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3228,22 +3228,22 @@
         <v>44</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>1853</v>
+        <v>1861</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>1656</v>
+        <v>1663</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>37227</v>
+        <v>43747</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>4312</v>
+        <v>6192</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>20.09</v>
+        <v>23.51</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3254,25 +3254,25 @@
         <v>99</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>1820</v>
+        <v>1854</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>1628</v>
+        <v>1652</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>18677</v>
+        <v>37122</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>1183</v>
+        <v>3449</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>10.26</v>
+        <v>20.02</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>254</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3283,25 +3283,25 @@
         <v>100</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>1806</v>
+        <v>1832</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>1552</v>
+        <v>1635</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>55599</v>
+        <v>26474</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>3438</v>
+        <v>1507</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>30.79</v>
+        <v>14.45</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>370</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3312,25 +3312,25 @@
         <v>101</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>1802</v>
+        <v>1817</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>1605</v>
+        <v>1559</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>29425</v>
+        <v>64455</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>2601</v>
+        <v>4363</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>16.33</v>
+        <v>35.47</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>176</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3344,22 +3344,22 @@
         <v>31</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>1753</v>
+        <v>1782</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>1629</v>
+        <v>1660</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>22717</v>
+        <v>33062</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>1751</v>
+        <v>2305</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>12.96</v>
+        <v>18.55</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3373,22 +3373,22 @@
         <v>25</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>1739</v>
+        <v>1727</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>36216</v>
+        <v>45154</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>4494</v>
+        <v>5470</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>20.83</v>
+        <v>26.15</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3402,22 +3402,22 @@
         <v>44</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>35701</v>
+        <v>41861</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>3795</v>
+        <v>5252</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>21.21</v>
+        <v>24.93</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3431,22 +3431,22 @@
         <v>44</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>1651</v>
+        <v>1664</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>1499</v>
+        <v>1517</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>34628</v>
+        <v>39348</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>3588</v>
+        <v>5136</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>20.97</v>
+        <v>23.65</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3460,22 +3460,22 @@
         <v>28</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>1622</v>
+        <v>1613</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>1438</v>
+        <v>1449</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>23916</v>
+        <v>32914</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>2293</v>
+        <v>3148</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>14.74</v>
+        <v>20.41</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3489,22 +3489,22 @@
         <v>12</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>1540</v>
+        <v>1548</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1344</v>
+        <v>1361</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>33455</v>
+        <v>38920</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>3210</v>
+        <v>4352</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>21.72</v>
+        <v>25.14</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3518,22 +3518,22 @@
         <v>25</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>1387</v>
+        <v>1408</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>1247</v>
+        <v>1262</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>18142</v>
+        <v>21869</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>1290</v>
+        <v>1643</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>13.08</v>
+        <v>15.53</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3547,22 +3547,22 @@
         <v>25</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>21154</v>
+        <v>23713</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>4256</v>
+        <v>4940</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>17.79</v>
+        <v>20.06</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3576,22 +3576,22 @@
         <v>25</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>1129</v>
+        <v>1140</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>13945</v>
+        <v>14261</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>2987</v>
+        <v>4012</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>11.84</v>
+        <v>12.07</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3605,22 +3605,22 @@
         <v>28</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>1145</v>
+        <v>1160</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>1028</v>
+        <v>1041</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>21495</v>
+        <v>30238</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>1634</v>
+        <v>2156</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>18.77</v>
+        <v>26.07</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3631,25 +3631,25 @@
         <v>112</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>1020</v>
+        <v>1027</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>922</v>
+        <v>807</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>16998</v>
+        <v>17782</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>888</v>
+        <v>2116</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>16.66</v>
+        <v>17.31</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>152</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3660,25 +3660,25 @@
         <v>113</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>986</v>
+        <v>1018</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>793</v>
+        <v>923</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>11258</v>
+        <v>20692</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>1515</v>
+        <v>1121</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>11.42</v>
+        <v>20.33</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3692,22 +3692,22 @@
         <v>14</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>940</v>
+        <v>977</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>763</v>
+        <v>785</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>18285</v>
+        <v>20689</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>1078</v>
+        <v>1397</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>19.45</v>
+        <v>21.18</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3721,22 +3721,22 @@
         <v>28</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>867</v>
+        <v>880</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>13173</v>
+        <v>20437</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>606</v>
+        <v>784</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>15.19</v>
+        <v>23.22</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3750,22 +3750,22 @@
         <v>44</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>850</v>
+        <v>866</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>784</v>
+        <v>807</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>9024</v>
+        <v>14455</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>713</v>
+        <v>959</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>10.62</v>
+        <v>16.69</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3779,22 +3779,22 @@
         <v>44</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>9221</v>
+        <v>13539</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>918</v>
+        <v>1216</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3808,22 +3808,22 @@
         <v>31</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>25896</v>
+        <v>24348</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>1595</v>
+        <v>2162</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>31.66</v>
+        <v>29.73</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3837,22 +3837,22 @@
         <v>44</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>15296</v>
+        <v>22975</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>1639</v>
+        <v>2266</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>19.86</v>
+        <v>29.76</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3866,22 +3866,22 @@
         <v>44</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>18595</v>
+        <v>15298</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>1019</v>
+        <v>1321</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>26.72</v>
+        <v>22.17</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3895,22 +3895,22 @@
         <v>44</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>7493</v>
+        <v>11696</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>878</v>
+        <v>1230</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>11.69</v>
+        <v>18.19</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3924,22 +3924,22 @@
         <v>28</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>22286</v>
+        <v>23647</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>1303</v>
+        <v>1606</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>35.89</v>
+        <v>38.51</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3953,22 +3953,22 @@
         <v>12</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>5845</v>
+        <v>9092</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>924</v>
+        <v>1611</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>9.81</v>
+        <v>15.2</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3982,22 +3982,22 @@
         <v>31</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>16065</v>
+        <v>10843</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>460</v>
+        <v>516</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>27.7</v>
+        <v>18.25</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -4011,22 +4011,22 @@
         <v>44</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>6380</v>
+        <v>9709</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>885</v>
+        <v>1247</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>11.27</v>
+        <v>17.06</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -4037,25 +4037,25 @@
         <v>126</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>6775</v>
+        <v>14679</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>779</v>
+        <v>1132</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>12.5</v>
+        <v>26.17</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>80</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4066,25 +4066,25 @@
         <v>127</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>9247</v>
+        <v>15815</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>17.06</v>
+        <v>28.86</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>105</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4098,22 +4098,22 @@
         <v>25</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>10201</v>
+        <v>10408</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>647</v>
+        <v>896</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>18.86</v>
+        <v>19.13</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>135</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4127,22 +4127,22 @@
         <v>44</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>19796</v>
+        <v>17367</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>755</v>
+        <v>996</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>36.93</v>
+        <v>32.52</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4156,22 +4156,22 @@
         <v>12</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>13763</v>
+        <v>12416</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>841</v>
+        <v>1010</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>28.85</v>
+        <v>25.55</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4185,22 +4185,22 @@
         <v>44</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>4244</v>
+        <v>6738</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>324</v>
+        <v>420</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>8.99</v>
+        <v>13.98</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4217,19 +4217,19 @@
         <v>472</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>8618</v>
+        <v>12290</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>503</v>
+        <v>706</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>18.26</v>
+        <v>26.04</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4240,25 +4240,25 @@
         <v>133</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>468</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>20540</v>
+        <v>11807</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>790</v>
+        <v>846</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>43.89</v>
+        <v>25.23</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4269,25 +4269,25 @@
         <v>134</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>467</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>7965</v>
+        <v>5310</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>626</v>
+        <v>558</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>17.06</v>
+        <v>11.37</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>117</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4298,25 +4298,25 @@
         <v>135</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>440</v>
+        <v>374</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>3371</v>
+        <v>5020</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>431</v>
+        <v>382</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>7.28</v>
+        <v>10.8</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4330,22 +4330,22 @@
         <v>31</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>16570</v>
+        <v>12751</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>693</v>
+        <v>842</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>35.79</v>
+        <v>27.6</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4356,25 +4356,25 @@
         <v>137</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>3137</v>
+        <v>17695</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>285</v>
+        <v>914</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>6.92</v>
+        <v>38.55</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>117</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4385,25 +4385,25 @@
         <v>138</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>402</v>
+        <v>326</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>8510</v>
+        <v>11738</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>808</v>
+        <v>351</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>18.83</v>
+        <v>26.26</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4414,25 +4414,25 @@
         <v>139</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>328</v>
+        <v>403</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>9527</v>
+        <v>11822</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>276</v>
+        <v>970</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>21.12</v>
+        <v>26.51</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>121</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4446,22 +4446,22 @@
         <v>44</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>14439</v>
+        <v>9367</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>502</v>
+        <v>550</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>32.23</v>
+        <v>21.34</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4475,22 +4475,22 @@
         <v>44</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>6547</v>
+        <v>9744</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>418</v>
+        <v>569</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>14.98</v>
+        <v>22.25</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4504,22 +4504,22 @@
         <v>25</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>7225</v>
+        <v>11693</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>319</v>
+        <v>415</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>17.16</v>
+        <v>27.51</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4533,22 +4533,22 @@
         <v>44</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>15595</v>
+        <v>7784</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>615</v>
+        <v>737</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>37.58</v>
+        <v>18.71</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4562,22 +4562,22 @@
         <v>22</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>9357</v>
+        <v>11654</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>533</v>
+        <v>773</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>24.12</v>
+        <v>28.78</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4591,22 +4591,22 @@
         <v>44</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>4618</v>
+        <v>12389</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>665</v>
+        <v>931</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>12.51</v>
+        <v>32.35</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4620,22 +4620,22 @@
         <v>44</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>7650</v>
+        <v>6846</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>770</v>
+        <v>935</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>21.19</v>
+        <v>18.6</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4649,22 +4649,22 @@
         <v>28</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>4097</v>
+        <v>6402</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>305</v>
+        <v>429</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>12.53</v>
+        <v>18.94</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4678,22 +4678,22 @@
         <v>28</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>5518</v>
+        <v>8568</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>317</v>
+        <v>453</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>16.87</v>
+        <v>25.58</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4707,22 +4707,22 @@
         <v>28</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>287</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>6141</v>
+        <v>9580</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>365</v>
+        <v>506</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>19.37</v>
+        <v>30.41</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4736,22 +4736,22 @@
         <v>44</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>299</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>6068</v>
+        <v>8367</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>457</v>
+        <v>561</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>19.26</v>
+        <v>26.9</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4765,22 +4765,22 @@
         <v>12</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>21505</v>
+        <v>15188</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>76.8</v>
+        <v>55.03</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4794,22 +4794,22 @@
         <v>12</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>3016</v>
+        <v>4955</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>412</v>
+        <v>540</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>12.06</v>
+        <v>19.58</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4826,19 +4826,19 @@
         <v>217</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>2089</v>
+        <v>3215</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>9.63</v>
+        <v>14.82</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4852,22 +4852,22 @@
         <v>44</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>5234</v>
+        <v>7022</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>388</v>
+        <v>458</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>25.66</v>
+        <v>35.11</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4878,25 +4878,25 @@
         <v>155</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>198</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>11180</v>
+        <v>4181</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>128</v>
+        <v>387</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>56.46</v>
+        <v>21.12</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>69</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4907,25 +4907,25 @@
         <v>156</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>2928</v>
+        <v>4521</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>287</v>
+        <v>424</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>14.79</v>
+        <v>23.3</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4936,25 +4936,25 @@
         <v>157</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>2571</v>
+        <v>19760</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>305</v>
+        <v>539</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>13.46</v>
+        <v>104.55</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>112</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4965,25 +4965,25 @@
         <v>158</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>14406</v>
+        <v>4446</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>476</v>
+        <v>124</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>75.42</v>
+        <v>23.78</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -4994,25 +4994,25 @@
         <v>159</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>2221</v>
+        <v>2431</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>12.34</v>
+        <v>13.66</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -5023,25 +5023,25 @@
         <v>160</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>8502</v>
+        <v>3312</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>346</v>
+        <v>268</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>47.23</v>
+        <v>18.61</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5052,25 +5052,25 @@
         <v>161</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>1585</v>
+        <v>3917</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>125</v>
+        <v>439</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>9.01</v>
+        <v>22.13</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5081,25 +5081,25 @@
         <v>162</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>2060</v>
+        <v>5036</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>11.98</v>
+        <v>29.11</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5116,19 +5116,19 @@
         <v>171</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>3222</v>
+        <v>2970</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>335</v>
+        <v>241</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>18.84</v>
+        <v>17.37</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5142,22 +5142,22 @@
         <v>44</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>1871</v>
+        <v>4591</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>103</v>
+        <v>406</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>11.48</v>
+        <v>27.01</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5171,22 +5171,22 @@
         <v>44</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>1658</v>
+        <v>2944</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>10.17</v>
+        <v>17.95</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5197,25 +5197,25 @@
         <v>166</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>3328</v>
+        <v>2507</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>21.2</v>
+        <v>15.48</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5229,22 +5229,22 @@
         <v>44</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E151" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>2814</v>
+      </c>
+      <c r="G151" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="F151" s="0" t="n">
-        <v>1891</v>
-      </c>
-      <c r="G151" s="0" t="n">
-        <v>96</v>
-      </c>
       <c r="H151" s="0" t="n">
-        <v>12.36</v>
+        <v>18.27</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5261,19 +5261,19 @@
         <v>150</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>1429</v>
+        <v>2156</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>9.53</v>
+        <v>14.37</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5287,22 +5287,22 @@
         <v>12</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>1183</v>
+        <v>1714</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>8.22</v>
+        <v>11.74</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5316,22 +5316,22 @@
         <v>44</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>131</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>3375</v>
+        <v>3990</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>23.77</v>
+        <v>28.91</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5345,22 +5345,22 @@
         <v>28</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>114</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>5528</v>
+        <v>7170</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>40.65</v>
+        <v>51.96</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5374,22 +5374,22 @@
         <v>28</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>1417</v>
+        <v>2846</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>10.42</v>
+        <v>21.08</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5403,22 +5403,22 @@
         <v>14</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>123</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>2101</v>
+        <v>3146</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>15.56</v>
+        <v>23.48</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5429,25 +5429,25 @@
         <v>174</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>2169</v>
+        <v>2024</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>17.08</v>
+        <v>15.22</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5458,25 +5458,25 @@
         <v>175</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>1246</v>
+        <v>3228</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>172</v>
+        <v>295</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>10.13</v>
+        <v>25.02</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>43</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5493,19 +5493,19 @@
         <v>122</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>9443</v>
+        <v>1785</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>77.4</v>
+        <v>14.63</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5516,25 +5516,25 @@
         <v>177</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>1825</v>
+        <v>1766</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>14.96</v>
+        <v>15.22</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5548,22 +5548,22 @@
         <v>14</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>5640</v>
+        <v>7663</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>50.81</v>
+        <v>67.22</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5577,22 +5577,22 @@
         <v>44</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>1806</v>
+        <v>2660</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>17.88</v>
+        <v>26.6</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5606,22 +5606,22 @@
         <v>14</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>1387</v>
+        <v>2212</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>15.76</v>
+        <v>24.85</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5638,19 +5638,19 @@
         <v>85</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>933</v>
+        <v>1577</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>10.98</v>
+        <v>18.55</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5664,22 +5664,22 @@
         <v>28</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>1017</v>
+        <v>1420</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>11.96</v>
+        <v>16.9</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5693,22 +5693,22 @@
         <v>28</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>1410</v>
+        <v>1916</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>16.59</v>
+        <v>23.95</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5722,22 +5722,22 @@
         <v>44</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>424</v>
+        <v>763</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>6.42</v>
+        <v>11.22</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5751,22 +5751,22 @@
         <v>28</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E169" s="0" t="n">
         <v>53</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>863</v>
+        <v>1191</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>13.08</v>
+        <v>18.61</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5783,19 +5783,19 @@
         <v>62</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>485</v>
+        <v>867</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>7.82</v>
+        <v>13.98</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5809,22 +5809,22 @@
         <v>44</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>7626</v>
+        <v>6301</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>123</v>
+        <v>103.3</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5838,22 +5838,22 @@
         <v>44</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>606</v>
+        <v>1622</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>9.77</v>
+        <v>26.59</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5864,25 +5864,25 @@
         <v>189</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>1063</v>
+        <v>1037</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>17.43</v>
+        <v>17.28</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5893,25 +5893,25 @@
         <v>190</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>4735</v>
+        <v>619</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>77.62</v>
+        <v>10.32</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5922,25 +5922,25 @@
         <v>191</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>60</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>448</v>
+        <v>696</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>7.47</v>
+        <v>11.6</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5951,25 +5951,25 @@
         <v>192</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>762</v>
+        <v>1277</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>12.92</v>
+        <v>22.02</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5983,22 +5983,22 @@
         <v>44</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E177" s="0" t="n">
         <v>51</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>542</v>
+        <v>853</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>9.68</v>
+        <v>15.51</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -6012,22 +6012,22 @@
         <v>22</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E178" s="0" t="n">
         <v>42</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>518</v>
+        <v>811</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>9.42</v>
+        <v>15.02</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -6038,7 +6038,7 @@
         <v>195</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>52</v>
@@ -6047,16 +6047,16 @@
         <v>47</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>403</v>
+        <v>5791</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>7.75</v>
+        <v>111.37</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6067,25 +6067,25 @@
         <v>196</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>51</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>3399</v>
+        <v>647</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>66.65</v>
+        <v>12.69</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6099,19 +6099,19 @@
         <v>44</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>459</v>
+        <v>557</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>9.37</v>
+        <v>11.85</v>
       </c>
       <c r="I181" s="0" t="n">
         <v>38</v>
@@ -6128,22 +6128,22 @@
         <v>44</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>316</v>
+        <v>923</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>6.58</v>
+        <v>19.64</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6154,25 +6154,25 @@
         <v>199</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D183" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="E183" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="F183" s="0" t="n">
+        <v>688</v>
+      </c>
+      <c r="G183" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="H183" s="0" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="I183" s="0" t="n">
         <v>48</v>
-      </c>
-      <c r="E183" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F183" s="0" t="n">
-        <v>3251</v>
-      </c>
-      <c r="G183" s="0" t="n">
-        <v>56</v>
-      </c>
-      <c r="H183" s="0" t="n">
-        <v>67.73</v>
-      </c>
-      <c r="I183" s="0" t="n">
-        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6183,25 +6183,25 @@
         <v>200</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>574</v>
+        <v>377</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>12.21</v>
+        <v>8.2</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6221,16 +6221,16 @@
         <v>39</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>3604</v>
+        <v>5407</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>78.35</v>
+        <v>117.54</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6244,22 +6244,22 @@
         <v>28</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>356</v>
+        <v>5410</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>8.09</v>
+        <v>117.61</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6279,16 +6279,16 @@
         <v>42</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>607</v>
+        <v>935</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>13.8</v>
+        <v>21.25</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6299,25 +6299,25 @@
         <v>204</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>41</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>4056</v>
+        <v>550</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>98.93</v>
+        <v>13.41</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6331,22 +6331,22 @@
         <v>22</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>360</v>
+        <v>598</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>8.78</v>
+        <v>14.95</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6357,25 +6357,25 @@
         <v>206</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>379</v>
+        <v>553</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>9.24</v>
+        <v>14.18</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6386,25 +6386,25 @@
         <v>207</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>361</v>
+        <v>738</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>9.26</v>
+        <v>19.42</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6424,16 +6424,16 @@
         <v>31</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>435</v>
+        <v>615</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>12.43</v>
+        <v>17.57</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6447,22 +6447,22 @@
         <v>22</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E193" s="0" t="n">
         <v>23</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>12000</v>
+        <v>866</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>352.94</v>
+        <v>34.64</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6473,25 +6473,25 @@
         <v>210</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D194" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E194" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="E194" s="0" t="n">
-        <v>21</v>
-      </c>
       <c r="F194" s="0" t="n">
-        <v>243</v>
+        <v>625</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>10.57</v>
+        <v>25</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6505,22 +6505,22 @@
         <v>44</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>383</v>
+        <v>274</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>16.65</v>
+        <v>11.42</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6531,25 +6531,25 @@
         <v>212</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>2789</v>
+        <v>393</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>126.77</v>
+        <v>17.09</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6566,19 +6566,19 @@
         <v>22</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>176</v>
+        <v>4899</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>8</v>
+        <v>222.68</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6589,25 +6589,25 @@
         <v>214</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>161</v>
+        <v>276</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>8.47</v>
+        <v>12.55</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6618,7 +6618,7 @@
         <v>215</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>18</v>
@@ -6627,16 +6627,16 @@
         <v>17</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>10.89</v>
+        <v>8.72</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6653,19 +6653,19 @@
         <v>18</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>118</v>
+        <v>406</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>6.56</v>
+        <v>22.56</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6676,25 +6676,25 @@
         <v>217</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>18</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>13.94</v>
+        <v>15.17</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6705,25 +6705,25 @@
         <v>218</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E202" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>2429</v>
+        <v>405</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>142.88</v>
+        <v>23.82</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6737,22 +6737,22 @@
         <v>28</v>
       </c>
       <c r="D203" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E203" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>8.53</v>
+        <v>14.38</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6763,25 +6763,25 @@
         <v>220</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D204" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E204" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>252</v>
+        <v>148</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>14.82</v>
+        <v>9.25</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6798,19 +6798,19 @@
         <v>15</v>
       </c>
       <c r="E205" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>7392</v>
+        <v>111</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>492.8</v>
+        <v>7.4</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6824,22 +6824,22 @@
         <v>28</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>76</v>
+        <v>405</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>5.07</v>
+        <v>28.93</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6850,25 +6850,25 @@
         <v>223</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E207" s="0" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>266</v>
+        <v>82</v>
       </c>
       <c r="G207" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>19</v>
+        <v>6.31</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6882,22 +6882,22 @@
         <v>44</v>
       </c>
       <c r="D208" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E208" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="G208" s="0" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>7.71</v>
+        <v>13.77</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6908,25 +6908,25 @@
         <v>225</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D209" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E209" s="0" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="G209" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>4.46</v>
+        <v>12.08</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6937,25 +6937,25 @@
         <v>226</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D210" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E210" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>8.25</v>
+        <v>17.09</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6975,16 +6975,16 @@
         <v>10</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>1955</v>
+        <v>2915</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>177.73</v>
+        <v>265</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
@@ -7004,16 +7004,16 @@
         <v>11</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>11.27</v>
+        <v>17</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
@@ -7033,16 +7033,16 @@
         <v>9</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7053,25 +7053,25 @@
         <v>230</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D214" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E214" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>167</v>
+        <v>2166</v>
       </c>
       <c r="G214" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>16.7</v>
+        <v>240.67</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7082,25 +7082,25 @@
         <v>231</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D215" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E215" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="G215" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>13.2</v>
+        <v>12.63</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
@@ -7111,25 +7111,25 @@
         <v>232</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D216" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E216" s="0" t="n">
         <v>7</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="G216" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>15.25</v>
+        <v>35.71</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
@@ -7143,22 +7143,22 @@
         <v>28</v>
       </c>
       <c r="D217" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E217" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="G217" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H217" s="0" t="n">
-        <v>22.86</v>
+        <v>19.67</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
@@ -7169,7 +7169,7 @@
         <v>234</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>6</v>
@@ -7178,16 +7178,16 @@
         <v>6</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="G218" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>8</v>
+        <v>25.67</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
@@ -7207,16 +7207,16 @@
         <v>4</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="G219" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>35.5</v>
+        <v>45</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
@@ -7233,19 +7233,19 @@
         <v>6</v>
       </c>
       <c r="E220" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F220" s="0" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G220" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H220" s="0" t="n">
-        <v>11.33</v>
+        <v>12.67</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="221">
@@ -7256,7 +7256,7 @@
         <v>237</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>5</v>
@@ -7265,16 +7265,16 @@
         <v>5</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="G221" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H221" s="0" t="n">
-        <v>4.8</v>
+        <v>11.6</v>
       </c>
       <c r="I221" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="222">
@@ -7285,7 +7285,7 @@
         <v>238</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>5</v>
@@ -7294,16 +7294,16 @@
         <v>5</v>
       </c>
       <c r="F222" s="0" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G222" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H222" s="0" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="I222" s="0" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="223">
@@ -7314,25 +7314,25 @@
         <v>239</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E223" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F223" s="0" t="n">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="G223" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H223" s="0" t="n">
-        <v>11</v>
+        <v>38.5</v>
       </c>
       <c r="I223" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="224">
@@ -7343,22 +7343,22 @@
         <v>240</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D224" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E224" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F224" s="0" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="G224" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H224" s="0" t="n">
-        <v>12.67</v>
+        <v>17.5</v>
       </c>
       <c r="I224" s="0" t="n">
         <v>16</v>
@@ -7375,22 +7375,22 @@
         <v>14</v>
       </c>
       <c r="D225" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E225" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F225" s="0" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G225" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H225" s="0" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="I225" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="226">
@@ -7404,22 +7404,22 @@
         <v>22</v>
       </c>
       <c r="D226" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E226" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F226" s="0" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G226" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H226" s="0" t="n">
-        <v>17</v>
+        <v>12.67</v>
       </c>
       <c r="I226" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="227">
@@ -7439,16 +7439,16 @@
         <v>2</v>
       </c>
       <c r="F227" s="0" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G227" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H227" s="0" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="I227" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="228">
@@ -7468,16 +7468,16 @@
         <v>2</v>
       </c>
       <c r="F228" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G228" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H228" s="0" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="I228" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="229">
@@ -7488,7 +7488,7 @@
         <v>245</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>1</v>
@@ -7497,16 +7497,16 @@
         <v>1</v>
       </c>
       <c r="F229" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G229" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H229" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I229" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="230">
@@ -7526,16 +7526,16 @@
         <v>1</v>
       </c>
       <c r="F230" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G230" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H230" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I230" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="231">
@@ -7555,16 +7555,16 @@
         <v>1</v>
       </c>
       <c r="F231" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G231" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H231" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I231" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="232">
@@ -7575,7 +7575,7 @@
         <v>248</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D232" s="0" t="n">
         <v>1</v>
@@ -7584,16 +7584,16 @@
         <v>1</v>
       </c>
       <c r="F232" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G232" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H232" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="233">
@@ -7613,16 +7613,16 @@
         <v>1</v>
       </c>
       <c r="F233" s="0" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G233" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H233" s="0" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I233" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
